--- a/sleepdata.xlsx
+++ b/sleepdata.xlsx
@@ -1,25 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b05e340c63349515/Desktop/sleep/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D8A46CA59B6F182EEC45243548893E78D40A6A21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>wakefulness</t>
+  </si>
+  <si>
+    <t>cupsOfCoffee</t>
+  </si>
+  <si>
+    <t>modafanil</t>
+  </si>
+  <si>
+    <t>exerciseYesterday</t>
+  </si>
+  <si>
+    <t>exerciseToday</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>dayScore</t>
+  </si>
+  <si>
+    <t>enjoyability</t>
+  </si>
+  <si>
+    <t>sleepWindowConfirmed</t>
+  </si>
+  <si>
+    <t>sleepTimeHours</t>
+  </si>
+  <si>
+    <t>sleepStartTime</t>
+  </si>
+  <si>
+    <t>sleepEndTime</t>
+  </si>
+  <si>
+    <t>sleepScore</t>
+  </si>
+  <si>
+    <t>totalKilocalories</t>
+  </si>
+  <si>
+    <t>totalSteps</t>
+  </si>
+  <si>
+    <t>highlyActiveSeconds</t>
+  </si>
+  <si>
+    <t>activeSeconds</t>
+  </si>
+  <si>
+    <t>sedentarySeconds</t>
+  </si>
+  <si>
+    <t>bodyBatteryDrainedValue</t>
+  </si>
+  <si>
+    <t>bodyBatteryChargedValue</t>
+  </si>
+  <si>
+    <t>bodyBatteryLowestValue</t>
+  </si>
+  <si>
+    <t>bodyBatteryHighestValue</t>
+  </si>
+  <si>
+    <t>avgWakingRespirationValue</t>
+  </si>
+  <si>
+    <t>maxHeartRate</t>
+  </si>
+  <si>
+    <t>restingHeartRate</t>
+  </si>
+  <si>
+    <t>maxStressLevel</t>
+  </si>
+  <si>
+    <t>avgStressLevel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +426,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.9375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.87890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.52734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.52734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.46875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.234375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.9375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.05859375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.64453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1171875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1171875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1171875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.3515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.87890625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.29296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>7.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45357.956250000003</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45358.285416666673</v>
+      </c>
+      <c r="N2">
+        <v>69</v>
+      </c>
+      <c r="O2">
+        <v>2203</v>
+      </c>
+      <c r="P2">
+        <v>3820</v>
+      </c>
+      <c r="Q2">
+        <v>890</v>
+      </c>
+      <c r="R2">
+        <v>4965</v>
+      </c>
+      <c r="S2">
+        <v>52105</v>
+      </c>
+      <c r="T2">
+        <v>70</v>
+      </c>
+      <c r="U2">
+        <v>54</v>
+      </c>
+      <c r="V2">
+        <v>39</v>
+      </c>
+      <c r="W2">
+        <v>100</v>
+      </c>
+      <c r="X2">
+        <v>13</v>
+      </c>
+      <c r="Y2">
+        <v>101</v>
+      </c>
+      <c r="Z2">
+        <v>42</v>
+      </c>
+      <c r="AA2">
+        <v>93</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>7.1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45357.956250000003</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45358.285416666673</v>
+      </c>
+      <c r="N3">
+        <v>69</v>
+      </c>
+      <c r="O3">
+        <v>2203</v>
+      </c>
+      <c r="P3">
+        <v>3820</v>
+      </c>
+      <c r="Q3">
+        <v>890</v>
+      </c>
+      <c r="R3">
+        <v>4965</v>
+      </c>
+      <c r="S3">
+        <v>52105</v>
+      </c>
+      <c r="T3">
+        <v>70</v>
+      </c>
+      <c r="U3">
+        <v>54</v>
+      </c>
+      <c r="V3">
+        <v>39</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3">
+        <v>13</v>
+      </c>
+      <c r="Y3">
+        <v>101</v>
+      </c>
+      <c r="Z3">
+        <v>42</v>
+      </c>
+      <c r="AA3">
+        <v>93</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45361.993055555547</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45362.262499999997</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>2649</v>
+      </c>
+      <c r="P4">
+        <v>4577</v>
+      </c>
+      <c r="Q4">
+        <v>1418</v>
+      </c>
+      <c r="R4">
+        <v>4590</v>
+      </c>
+      <c r="S4">
+        <v>53452</v>
+      </c>
+      <c r="T4">
+        <v>88</v>
+      </c>
+      <c r="U4">
+        <v>61</v>
+      </c>
+      <c r="V4">
+        <v>22</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>13</v>
+      </c>
+      <c r="Y4">
+        <v>111</v>
+      </c>
+      <c r="Z4">
+        <v>43</v>
+      </c>
+      <c r="AA4">
+        <v>98</v>
+      </c>
+      <c r="AB4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>